--- a/PLANTILLAS APLICATIVO/SISBEN.xlsx
+++ b/PLANTILLAS APLICATIVO/SISBEN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Dropbox\PC\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO ENVIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1488B0AF-5188-4C4C-979F-62A341EB1E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB280876-4F30-4D2C-AEC9-F141226159FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
   </bookViews>
@@ -30,9 +30,242 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>VEREDA</t>
+  </si>
+  <si>
+    <t>CANTIDAD HOGARES</t>
+  </si>
+  <si>
+    <t>CANTIDAD PERSONAS</t>
+  </si>
+  <si>
+    <t>MUJERES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOMBRES </t>
+  </si>
+  <si>
+    <t>SUTATENZA</t>
+  </si>
+  <si>
+    <t>ZONA URBANA</t>
+  </si>
+  <si>
+    <t>PARAMO</t>
+  </si>
+  <si>
+    <t>IRZON</t>
+  </si>
+  <si>
+    <t>GUAMO</t>
+  </si>
+  <si>
+    <t>SIGUIQUE ARBOL</t>
+  </si>
+  <si>
+    <t>SIGUIQUE GUAYABAL</t>
+  </si>
+  <si>
+    <t>SIGUIQUE CENTRO</t>
+  </si>
+  <si>
+    <t>OVEJERAS SAN JORGE</t>
+  </si>
+  <si>
+    <t>OVEJERAS NARANJOS</t>
+  </si>
+  <si>
+    <t>SALITRE</t>
+  </si>
+  <si>
+    <t>PIEDRALARGA</t>
+  </si>
+  <si>
+    <t>BOQUERON</t>
+  </si>
+  <si>
+    <t>GAQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balcones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calichana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caño Negro </t>
+  </si>
+  <si>
+    <t>Carbonera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceiba Chiquita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceiba Grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charco Largo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormigueros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoya Grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Victoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazareth </t>
+  </si>
+  <si>
+    <t>Planadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Agustin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Miguel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Rafael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cecilia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vara Santa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin Vereda </t>
+  </si>
+  <si>
+    <t>SANTA MARIA</t>
+  </si>
+  <si>
+    <t>CHIVOR</t>
+  </si>
+  <si>
+    <t>ALIMENTOS</t>
+  </si>
+  <si>
+    <t>CAMOYO</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>CHIVOR CHIQUITO</t>
+  </si>
+  <si>
+    <t>EL PINO</t>
+  </si>
+  <si>
+    <t>GUALI</t>
+  </si>
+  <si>
+    <t>HIGUERON</t>
+  </si>
+  <si>
+    <t>JAGUA - LA PLAYA</t>
+  </si>
+  <si>
+    <t>LA ESMERALDA</t>
+  </si>
+  <si>
+    <t>ESPERANZA</t>
+  </si>
+  <si>
+    <t>SAN CAYETANO</t>
+  </si>
+  <si>
+    <t>SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>SINAI</t>
+  </si>
+  <si>
+    <t>SOMONDOCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRERAS </t>
+  </si>
+  <si>
+    <t>BOHORQUEZ</t>
+  </si>
+  <si>
+    <t>BOYA I</t>
+  </si>
+  <si>
+    <t>BOYA II</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>CAÑOS</t>
+  </si>
+  <si>
+    <t>COBAVITA</t>
+  </si>
+  <si>
+    <t>CUCUAVACA</t>
+  </si>
+  <si>
+    <t>GUADUAS</t>
+  </si>
+  <si>
+    <t>PANCUPA</t>
+  </si>
+  <si>
+    <t>RICHA</t>
+  </si>
+  <si>
+    <t>RESGUARDO</t>
+  </si>
+  <si>
+    <t>SABANETAS</t>
+  </si>
+  <si>
+    <t>SAN ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN SEBASTIAN </t>
+  </si>
+  <si>
+    <t>ZARZAL</t>
+  </si>
+  <si>
+    <t>CABECERA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +273,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,12 +304,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +649,1555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA00A1-AAF8-4A76-B7A2-3F18BE93259A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>309</v>
+      </c>
+      <c r="E2">
+        <v>656</v>
+      </c>
+      <c r="F2">
+        <v>323</v>
+      </c>
+      <c r="G2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>202</v>
+      </c>
+      <c r="E3">
+        <v>396</v>
+      </c>
+      <c r="F3">
+        <v>197</v>
+      </c>
+      <c r="G3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>198</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>191</v>
+      </c>
+      <c r="F5">
+        <v>86</v>
+      </c>
+      <c r="G5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>181</v>
+      </c>
+      <c r="F6">
+        <v>88</v>
+      </c>
+      <c r="G6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>195</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>105</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>174</v>
+      </c>
+      <c r="F9">
+        <v>91</v>
+      </c>
+      <c r="G9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>177</v>
+      </c>
+      <c r="F10">
+        <v>93</v>
+      </c>
+      <c r="G10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>197</v>
+      </c>
+      <c r="E12">
+        <v>415</v>
+      </c>
+      <c r="F12">
+        <v>220</v>
+      </c>
+      <c r="G12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>181</v>
+      </c>
+      <c r="E13" s="2">
+        <v>380</v>
+      </c>
+      <c r="F13" s="2">
+        <v>207</v>
+      </c>
+      <c r="G13" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>341</v>
+      </c>
+      <c r="E14" s="2">
+        <v>736</v>
+      </c>
+      <c r="F14" s="2">
+        <v>377</v>
+      </c>
+      <c r="G14" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <f>+F15+G15</f>
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2021</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E35" si="0">+F16+G16</f>
+        <v>178</v>
+      </c>
+      <c r="F16" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F17" s="2">
+        <v>46</v>
+      </c>
+      <c r="G17" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F18" s="2">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F19" s="2">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F20" s="2">
+        <v>37</v>
+      </c>
+      <c r="G20" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F21" s="2">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="F22" s="2">
+        <v>49</v>
+      </c>
+      <c r="G22" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F23" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F25" s="2">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2021</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F27" s="2">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F28" s="2">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F29" s="2">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44</v>
+      </c>
+      <c r="G30" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F32" s="2">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2021</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F33" s="2">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2021</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2">
+        <v>719</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>1899</v>
+      </c>
+      <c r="F35" s="2">
+        <v>897</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>33</v>
+      </c>
+      <c r="F36" s="2">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>75</v>
+      </c>
+      <c r="F37" s="2">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2">
+        <v>117</v>
+      </c>
+      <c r="E38">
+        <v>251</v>
+      </c>
+      <c r="F38" s="2">
+        <v>113</v>
+      </c>
+      <c r="G38" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39" s="2">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>166</v>
+      </c>
+      <c r="F40" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>53</v>
+      </c>
+      <c r="F41" s="2">
+        <v>21</v>
+      </c>
+      <c r="G41" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2021</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>59</v>
+      </c>
+      <c r="F42" s="2">
+        <v>28</v>
+      </c>
+      <c r="G42" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>57</v>
+      </c>
+      <c r="F43" s="2">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2021</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="2">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+      <c r="F44" s="2">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2021</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="F45" s="2">
+        <v>22</v>
+      </c>
+      <c r="G45" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="2">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>90</v>
+      </c>
+      <c r="F47" s="2">
+        <v>35</v>
+      </c>
+      <c r="G47" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2021</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="2">
+        <v>39</v>
+      </c>
+      <c r="E48">
+        <v>85</v>
+      </c>
+      <c r="F48" s="2">
+        <v>41</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="2">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>116</v>
+      </c>
+      <c r="F49" s="2">
+        <v>53</v>
+      </c>
+      <c r="G49" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="2">
+        <v>51</v>
+      </c>
+      <c r="E50">
+        <v>98</v>
+      </c>
+      <c r="F50" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2021</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>154</v>
+      </c>
+      <c r="F51" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2021</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="2">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>84</v>
+      </c>
+      <c r="F52" s="2">
+        <v>43</v>
+      </c>
+      <c r="G52" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2021</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="2">
+        <v>63</v>
+      </c>
+      <c r="E53">
+        <v>118</v>
+      </c>
+      <c r="F53" s="2">
+        <v>64</v>
+      </c>
+      <c r="G53" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2021</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2">
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <v>122</v>
+      </c>
+      <c r="F54" s="2">
+        <v>67</v>
+      </c>
+      <c r="G54" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2021</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="2">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <v>136</v>
+      </c>
+      <c r="F55" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2021</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="2">
+        <v>38</v>
+      </c>
+      <c r="E56">
+        <v>86</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2021</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57">
+        <v>200</v>
+      </c>
+      <c r="F57" s="2">
+        <v>104</v>
+      </c>
+      <c r="G57" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2021</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="2">
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+      <c r="F58" s="2">
+        <v>28</v>
+      </c>
+      <c r="G58" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2021</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="2">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>60</v>
+      </c>
+      <c r="F59" s="2">
+        <v>32</v>
+      </c>
+      <c r="G59" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2021</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="2">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>46</v>
+      </c>
+      <c r="F60" s="2">
+        <v>25</v>
+      </c>
+      <c r="G60" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2021</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2">
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>113</v>
+      </c>
+      <c r="F61" s="2">
+        <v>61</v>
+      </c>
+      <c r="G61" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2021</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2">
+        <v>70</v>
+      </c>
+      <c r="E62">
+        <v>151</v>
+      </c>
+      <c r="F62" s="2">
+        <v>82</v>
+      </c>
+      <c r="G62" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>159</v>
+      </c>
+      <c r="F63" s="2">
+        <v>85</v>
+      </c>
+      <c r="G63" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2021</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64">
+        <v>187</v>
+      </c>
+      <c r="F64" s="2">
+        <v>96</v>
+      </c>
+      <c r="G64" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2021</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2">
+        <v>37</v>
+      </c>
+      <c r="E65">
+        <v>79</v>
+      </c>
+      <c r="F65" s="2">
+        <v>41</v>
+      </c>
+      <c r="G65" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2021</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2">
+        <v>207</v>
+      </c>
+      <c r="E66">
+        <v>522</v>
+      </c>
+      <c r="F66" s="2">
+        <v>279</v>
+      </c>
+      <c r="G66" s="2">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>